--- a/Documents/Data/Teen and Young Adults/Category_TeenAndYoungAdults.xlsx
+++ b/Documents/Data/Teen and Young Adults/Category_TeenAndYoungAdults.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parakoda\Documents\Visual Studio 2015\Projects\BooksLibraryManagement\Category\Category_Teen and Young Adults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Book Infor\BooksLibraryManagement\Category\Category_Teen and Young Adults\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7908"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+  <si>
+    <t>Image</t>
+  </si>
   <si>
     <t>Category</t>
   </si>
@@ -32,6 +35,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Author's Name</t>
   </si>
   <si>
@@ -53,6 +59,15 @@
     <t>Price (use to caculate fee in case books be lost)</t>
   </si>
   <si>
+    <t>The total number of each type of books</t>
+  </si>
+  <si>
+    <t>The number of books available for rent</t>
+  </si>
+  <si>
+    <t>Describe book condition</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
@@ -80,6 +95,9 @@
     <t>The Eighth Story. Nineteen Years Later. Based on an original new story by J.K. Rowling, Jack Thorne and John Tiffany, a new play by Jack Thorne. Based on an original new story by J.K. Rowling, Jack Thorne and John Tiffany, a new play by Jack Thorne, Harry Potter and the Cursed Child is the eighth story in the Harry Potter series and the first official Harry Potter story to be presented on stage. The play will receive its world premiere in London’s West End on 30th July 2016. It was always difficult being Harry Potter and it isn’t much easier now that he is an overworked employee of the Ministry of Magic, a husband, and father of three school-age children. While Harry grapples with a past that refuses to stay where it belongs, his youngest son Albus must struggle with the weight of a family legacy he never wanted. As past and present fuse ominously, both father and son learn the uncomfortable truth: sometimes, darkness comes from unexpected places.</t>
   </si>
   <si>
+    <t>US$22.77 </t>
+  </si>
+  <si>
     <t>Fantastic Beasts and Where to Find Them : The Original Screenplay</t>
   </si>
   <si>
@@ -89,6 +107,9 @@
     <t>J.K. Rowling's screenwriting debut is captured in this exciting hardcover edition of the Fantastic Beasts and Where to Find Them screenplay. When Magizoologist Newt Scamander arrives in New York, he intends his stay to be just a brief stopover. However, when his magical case is misplaced and some of Newt's fantastic beasts escape, it spells trouble for everyone...Fantastic Beasts and Where to Find Them marks the screenwriting debut of J.K. Rowling, author of the beloved and internationally bestselling Harry Potter books. Featuring a cast of remarkable characters, this is epic, adventure-packed storytelling at its very best. Whether an existing fan or new to the wizarding world, this is a perfect addition to any reader's bookshelf.</t>
   </si>
   <si>
+    <t>US$15.84</t>
+  </si>
+  <si>
     <t>The Little Prince</t>
   </si>
   <si>
@@ -107,6 +128,9 @@
     <t>Translated by Irene Testot-Ferry. The Little Prince is a classic tale of equal appeal to children and adults. On one level it is the story of an airman's discovery, in the desert, of a small boy from another planet - the Little Prince of the title - and his stories of intergalactic travel, while on the other hand it is a thought-provoking allegory of the human condition. First published in 1943, the year before the author's death in action, this translation contains Saint-Exupery's delightful illustrations.</t>
   </si>
   <si>
+    <t>US$3.12</t>
+  </si>
+  <si>
     <t>Wonder</t>
   </si>
   <si>
@@ -119,6 +143,9 @@
     <t>'My name is August. I won't describe what I look like. Whatever you're thinking, it's probably worse.' Auggie wants to be an ordinary ten-year-old. He does ordinary things - eating ice cream, playing on his Xbox. He feels ordinary - inside. But ordinary kids don't make other ordinary kids run away screaming in playgrounds. Ordinary kids aren't stared at wherever they go. Born with a terrible facial abnormality, Auggie has been home-schooled by his parents his whole life. Now, for the first time, he's being sent to a real school - and he's dreading it. All he wants is to be accepted - but can he convince his new classmates that he's just like them, underneath it all? Wonder is a funny, frank, astonishingly moving debut to read in one sitting, pass on to others, and remember long after the final page.</t>
   </si>
   <si>
+    <t>US$8.03</t>
+  </si>
+  <si>
     <t>Everything, Everything</t>
   </si>
   <si>
@@ -128,6 +155,9 @@
     <t>"Powerful, lovely, heart-wrenching, and so absorbing I devoured it in one sitting." (Jennifer Niven, author of All the Bright Places). If you loved Hazel and Augustus, Violet and Finch, and Mia and Adam, get ready to fall again for Maddy and Olly - the girl who lives in a bubble, and the boy next door...Soon to be a major motion picture! This is the story of the thrill and heartbreak that ensues when we break out of our shell to do crazy, sometimes death-defying things for love. Madeline Whittier is allergic to the outside world. So allergic, in fact, that she has never left the house in all of her seventeen years. But when Olly moves in next door, and wants to talk to Maddy, tiny holes start to appear in the protective bubble her mother has built around her. Olly writes his IM address on a piece of paper, shows it at her window, and suddenly, a door opens. Maddy is certainly going to fall in love with Olly. It's almost certainly going to be a disaster.</t>
   </si>
   <si>
+    <t>US$9.00</t>
+  </si>
+  <si>
     <t>The Tales of Beedle the Bard</t>
   </si>
   <si>
@@ -140,6 +170,9 @@
     <t>'You've never heard of The Tales of Beedle the Bard?' said Ron incredulously. 'You're kidding, right?' (From Harry Potter and the Deathly Hallows) Published by the charity Lumos in association with Bloomsbury Publishing Plc, The Tales of Beedle the Bard is the first new book from J. K. Rowling since the publication of Harry Potter and the Deathly Hallows. The Tales of Beedle the Bard played a crucial role in assisting Harry, with his friends Ron and Hermione, to finally defeat Lord Voldemort. Fans will be thrilled to have this opportunity to read the tales in full. An exciting addition to the canon of Harry Potter, the tales reveal the wonderful versatility of the author, as she tackles with relish the structure and varying tones of a classic fairy tale. There are five tales: 'The Tale of the Three Brothers', recounted in Deathly Hallows, plus 'The Fountain of Fair Fortune', 'The Warlock's Hairy Heart', 'The Wizard and the Hopping Pot', and 'Babbitty Rabbitty and her Cackling Stump'. Each has its own magical character and will bring delight, laughter and the thrill of mortal peril. Translated from the original runes by Hermione Granger, the tales are introduced and illustrated by J. K. Rowling. Also included are notes by Professor Albus Dumbledore, which appear by kind permission of the Hogwarts Headmasters' Archive. Lumos is a charity founded by J. K. Rowling which aims to make life better for disadvantaged children. Registered Charity Number: 1112575.</t>
   </si>
   <si>
+    <t>US$8.62</t>
+  </si>
+  <si>
     <t>The Hunger Games</t>
   </si>
   <si>
@@ -155,6 +188,9 @@
     <t>Sixteen-year-old Katniss Everdeen regards it as a death sentence when she is forced to represent her district in the annual Hunger Games, a fight to the death on live TV. But Katniss has been close to death before - and survival, for her, is second nature. The Hunger Games is a searing novel set in a future with unsettling parallels to our present. Welcome to the deadliest reality TV show ever...</t>
   </si>
   <si>
+    <t>US$11.39</t>
+  </si>
+  <si>
     <t>Gangsta Granny</t>
   </si>
   <si>
@@ -167,6 +203,9 @@
     <t>Another hilarious and moving novel from bestselling, critically acclaimed author David Walliams, the natural successor to Roald Dahl. A story of prejudice and acceptance, funny lists and silly words, this new book has all the hallmarks of David's previous bestsellers. Our hero Ben is bored beyond belief after he is made to stay at his grandma's house. She's the boringest grandma ever: all she wants to do is to play Scrabble, and eat cabbage soup. But there are two things Ben doesn't know about his grandma. 1) She was once an international jewel thief. 2) All her life, she has been plotting to steal the crown jewels, and now she needs Ben's help...</t>
   </si>
   <si>
+    <t>US$8.16</t>
+  </si>
+  <si>
     <t>Catching Fire</t>
   </si>
   <si>
@@ -179,6 +218,9 @@
     <t>After winning the brutal Hunger Games, Katniss Everdeen returns to her district, hoping for a peaceful future. But Katniss starts to hear rumours of a deadly rebellion against the Capitol. A rebellion that she and Peeta have helped to create. As Katniss and Peeta are forced to visit the districts on the Capitol's cruel Victory Tour, the stakes are higher than ever. Unless Katniss and Peeta can convince the world that they are still lost in their love for each other, the consequences will be horrifying. This is the terrifying sequel to "The Hunger Games".</t>
   </si>
   <si>
+    <t>US$8.96</t>
+  </si>
+  <si>
     <t>Hollow City : The Second Novel of Miss Peregrine's Children</t>
   </si>
   <si>
@@ -197,14 +239,14 @@
     <t>This second novel begins in 1940, immediately after the first book ended. Having escaped Miss Peregrine's island by the skin of their teeth, Jacob and his new friends must journey to London, the peculiar capital of the world. Along the way, they encounter new allies, a menagerie of peculiar animals, and other unexpected surprises. Complete with dozens of newly discovered (and thoroughly mesmerizing) vintage photographs, this new adventure will delight readers of all ages.</t>
   </si>
   <si>
-    <t>22.77 </t>
+    <t>US$13.13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,10 +271,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <name val="Calibri "/>
     </font>
   </fonts>
   <fills count="2">
@@ -256,29 +312,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -373,6 +420,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -408,6 +472,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,398 +641,507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="66.42578125" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="66.33203125" customWidth="1"/>
+    <col min="12" max="12" width="42.88671875" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" customWidth="1"/>
+    <col min="14" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="35.4">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="89.25" customHeight="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6">
+        <v>42693</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="3">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3">
+        <v>100</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="69.599999999999994">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6">
+        <v>42582</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3">
+        <v>100</v>
+      </c>
+      <c r="N3" s="3">
+        <v>100</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.399999999999999">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="3">
+        <v>100</v>
+      </c>
+      <c r="N4" s="3">
+        <v>100</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="17.399999999999999">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="6">
+        <v>41334</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="3">
+        <v>100</v>
+      </c>
+      <c r="N5" s="3">
+        <v>100</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="17.399999999999999">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="6">
+        <v>42549</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="3">
+        <v>100</v>
+      </c>
+      <c r="N6" s="3">
+        <v>100</v>
+      </c>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="17.399999999999999">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="6">
+        <v>39784</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="3">
+        <v>100</v>
+      </c>
+      <c r="N7" s="3">
+        <v>100</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="17.399999999999999">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="6">
+        <v>40401</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="17.399999999999999">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="6">
+        <v>41333</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="10" spans="1:15" ht="17.399999999999999">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="34.799999999999997">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7">
-        <v>42693</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4">
-        <v>15.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7">
-        <v>42582</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="4">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="7">
-        <v>41334</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4">
-        <v>8.0299999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="7">
-        <v>42549</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="7">
-        <v>39784</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4">
-        <v>8.6199999999999992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7">
-        <v>40401</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="4">
-        <v>11.39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="7">
-        <v>41333</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="4">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="4">
-        <v>8.9600000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="4">
-        <v>13.13</v>
-      </c>
+      <c r="I11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="3">
+        <v>100</v>
+      </c>
+      <c r="N11" s="3">
+        <v>100</v>
+      </c>
+      <c r="O11" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://www.bookdepository.com/publishers/LITTLE-BROWN"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://www.bookdepository.com/author/J-K-Rowling"/>
-    <hyperlink ref="E2" r:id="rId3" display="https://www.bookdepository.com/publishers/Little-Brown-Book-Group"/>
-    <hyperlink ref="D4" r:id="rId4" display="https://www.bookdepository.com/author/Antoine-de-Saint-Exupery"/>
-    <hyperlink ref="E4" r:id="rId5" display="https://www.bookdepository.com/publishers/Wordsworth-Editions-Ltd"/>
-    <hyperlink ref="D5" r:id="rId6" display="https://www.bookdepository.com/author/R-J-Palacio"/>
-    <hyperlink ref="E5" r:id="rId7" display="https://www.bookdepository.com/publishers/Random-House-Childrens-Publishers-UK"/>
-    <hyperlink ref="D6" r:id="rId8" display="https://www.bookdepository.com/author/Nicola-Yoon"/>
-    <hyperlink ref="E6" r:id="rId9" display="https://www.bookdepository.com/publishers/Random-House-Childrens-Publishers-UK"/>
-    <hyperlink ref="D7" r:id="rId10" display="https://www.bookdepository.com/author/J-K-Rowling"/>
-    <hyperlink ref="E7" r:id="rId11" display="https://www.bookdepository.com/publishers/Bloomsbury-Publishing-PLC"/>
-    <hyperlink ref="D8" r:id="rId12" display="https://www.bookdepository.com/author/Suzanne-Collins"/>
-    <hyperlink ref="E8" r:id="rId13" display="https://www.bookdepository.com/publishers/Scholastic-US"/>
-    <hyperlink ref="D9" r:id="rId14" display="https://www.bookdepository.com/author/David-Walliams"/>
-    <hyperlink ref="E9" r:id="rId15" display="https://www.bookdepository.com/publishers/HarperCollins-Publishers"/>
-    <hyperlink ref="D10" r:id="rId16" display="https://www.bookdepository.com/author/Suzanne-Collins"/>
-    <hyperlink ref="E10" r:id="rId17" display="https://www.bookdepository.com/publishers/Scholastic"/>
-    <hyperlink ref="D11" r:id="rId18" display="https://www.bookdepository.com/author/Ransom-Riggs"/>
-    <hyperlink ref="E11" r:id="rId19" display="https://www.bookdepository.com/publishers/Quirk-Books"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://www.bookdepository.com/publishers/LITTLE-BROWN"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://www.bookdepository.com/author/J-K-Rowling"/>
+    <hyperlink ref="G2" r:id="rId3" display="https://www.bookdepository.com/publishers/Little-Brown-Book-Group"/>
+    <hyperlink ref="F4" r:id="rId4" display="https://www.bookdepository.com/author/Antoine-de-Saint-Exupery"/>
+    <hyperlink ref="G4" r:id="rId5" display="https://www.bookdepository.com/publishers/Wordsworth-Editions-Ltd"/>
+    <hyperlink ref="F5" r:id="rId6" display="https://www.bookdepository.com/author/R-J-Palacio"/>
+    <hyperlink ref="G5" r:id="rId7" display="https://www.bookdepository.com/publishers/Random-House-Childrens-Publishers-UK"/>
+    <hyperlink ref="F6" r:id="rId8" display="https://www.bookdepository.com/author/Nicola-Yoon"/>
+    <hyperlink ref="G6" r:id="rId9" display="https://www.bookdepository.com/publishers/Random-House-Childrens-Publishers-UK"/>
+    <hyperlink ref="F7" r:id="rId10" display="https://www.bookdepository.com/author/J-K-Rowling"/>
+    <hyperlink ref="G7" r:id="rId11" display="https://www.bookdepository.com/publishers/Bloomsbury-Publishing-PLC"/>
+    <hyperlink ref="F8" r:id="rId12" display="https://www.bookdepository.com/author/Suzanne-Collins"/>
+    <hyperlink ref="G8" r:id="rId13" display="https://www.bookdepository.com/publishers/Scholastic-US"/>
+    <hyperlink ref="F9" r:id="rId14" display="https://www.bookdepository.com/author/David-Walliams"/>
+    <hyperlink ref="G9" r:id="rId15" display="https://www.bookdepository.com/publishers/HarperCollins-Publishers"/>
+    <hyperlink ref="F10" r:id="rId16" display="https://www.bookdepository.com/author/Suzanne-Collins"/>
+    <hyperlink ref="G10" r:id="rId17" display="https://www.bookdepository.com/publishers/Scholastic"/>
+    <hyperlink ref="F11" r:id="rId18" display="https://www.bookdepository.com/author/Ransom-Riggs"/>
+    <hyperlink ref="G11" r:id="rId19" display="https://www.bookdepository.com/publishers/Quirk-Books"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId20"/>

--- a/Documents/Data/Teen and Young Adults/Category_TeenAndYoungAdults.xlsx
+++ b/Documents/Data/Teen and Young Adults/Category_TeenAndYoungAdults.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Book Infor\BooksLibraryManagement\Category\Category_Teen and Young Adults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\github\LibraryManager\BooksLibraryManagement\Documents\Data\Teen and Young Adults\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7908"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Image</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Author's Name</t>
   </si>
   <si>
@@ -240,13 +237,22 @@
   </si>
   <si>
     <t>US$13.13</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,22 +279,23 @@
     <font>
       <b/>
       <u/>
-      <sz val="14"/>
-      <name val="Calibri "/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Calibri "/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri "/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="14"/>
-      <name val="Calibri "/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -321,11 +328,17 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,32 +654,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="41.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="66.33203125" customWidth="1"/>
-    <col min="12" max="12" width="42.88671875" customWidth="1"/>
-    <col min="13" max="13" width="39.6640625" customWidth="1"/>
-    <col min="14" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="66.28515625" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" customWidth="1"/>
+    <col min="14" max="14" width="39.7109375" customWidth="1"/>
+    <col min="15" max="15" width="36" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="35.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -686,462 +701,515 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="89.25" customHeight="1">
+    <row r="2" spans="1:16" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="9">
+        <v>9781408708989</v>
+      </c>
+      <c r="I2" s="7">
+        <v>15.7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5">
+        <v>42693</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6">
-        <v>42693</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="3">
-        <v>100</v>
-      </c>
       <c r="N2" s="3">
         <v>100</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3">
+        <v>100</v>
+      </c>
+      <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="69.599999999999994">
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9">
+        <v>9780751565355</v>
+      </c>
+      <c r="I3" s="7">
+        <v>22.6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="5">
+        <v>42582</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="6">
-        <v>42582</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3">
-        <v>100</v>
-      </c>
       <c r="N3" s="3">
         <v>100</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3">
+        <v>100</v>
+      </c>
+      <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="17.399999999999999">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="9">
+        <v>9781853261589</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3.09</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="3">
-        <v>100</v>
-      </c>
       <c r="N4" s="3">
         <v>100</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3">
+        <v>100</v>
+      </c>
+      <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="17.399999999999999">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="9">
+        <v>9780552565974</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="5">
+        <v>41334</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="6">
-        <v>41334</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="3">
-        <v>100</v>
-      </c>
       <c r="N5" s="3">
         <v>100</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>100</v>
+      </c>
+      <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="17.399999999999999">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="9">
+        <v>9780552574235</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8.92</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="5">
+        <v>42549</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="6">
-        <v>42549</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="3">
-        <v>100</v>
-      </c>
       <c r="N6" s="3">
         <v>100</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>100</v>
+      </c>
+      <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="17.399999999999999">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="9">
+        <v>9780747599876</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="5">
+        <v>39784</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="6">
-        <v>39784</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="3">
-        <v>100</v>
-      </c>
       <c r="N7" s="3">
         <v>100</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>100</v>
+      </c>
+      <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="17.399999999999999">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="9">
+        <v>9780439023528</v>
+      </c>
+      <c r="I8" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="K8" s="5">
+        <v>40401</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="6">
-        <v>40401</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="17.399999999999999">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="9">
+        <v>9780007371464</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8.09</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="5">
+        <v>41333</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="6">
-        <v>41333</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="17.399999999999999">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="9">
+        <v>9781407109367</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="34.799999999999997">
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="9">
+        <v>9781594747359</v>
+      </c>
+      <c r="I11" s="7">
+        <v>13.01</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="K11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="3">
-        <v>100</v>
-      </c>
       <c r="N11" s="3">
         <v>100</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3">
+        <v>100</v>
+      </c>
+      <c r="P11" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://www.bookdepository.com/publishers/LITTLE-BROWN"/>
-    <hyperlink ref="F2" r:id="rId2" display="https://www.bookdepository.com/author/J-K-Rowling"/>
-    <hyperlink ref="G2" r:id="rId3" display="https://www.bookdepository.com/publishers/Little-Brown-Book-Group"/>
-    <hyperlink ref="F4" r:id="rId4" display="https://www.bookdepository.com/author/Antoine-de-Saint-Exupery"/>
-    <hyperlink ref="G4" r:id="rId5" display="https://www.bookdepository.com/publishers/Wordsworth-Editions-Ltd"/>
-    <hyperlink ref="F5" r:id="rId6" display="https://www.bookdepository.com/author/R-J-Palacio"/>
-    <hyperlink ref="G5" r:id="rId7" display="https://www.bookdepository.com/publishers/Random-House-Childrens-Publishers-UK"/>
-    <hyperlink ref="F6" r:id="rId8" display="https://www.bookdepository.com/author/Nicola-Yoon"/>
-    <hyperlink ref="G6" r:id="rId9" display="https://www.bookdepository.com/publishers/Random-House-Childrens-Publishers-UK"/>
-    <hyperlink ref="F7" r:id="rId10" display="https://www.bookdepository.com/author/J-K-Rowling"/>
-    <hyperlink ref="G7" r:id="rId11" display="https://www.bookdepository.com/publishers/Bloomsbury-Publishing-PLC"/>
-    <hyperlink ref="F8" r:id="rId12" display="https://www.bookdepository.com/author/Suzanne-Collins"/>
-    <hyperlink ref="G8" r:id="rId13" display="https://www.bookdepository.com/publishers/Scholastic-US"/>
-    <hyperlink ref="F9" r:id="rId14" display="https://www.bookdepository.com/author/David-Walliams"/>
-    <hyperlink ref="G9" r:id="rId15" display="https://www.bookdepository.com/publishers/HarperCollins-Publishers"/>
-    <hyperlink ref="F10" r:id="rId16" display="https://www.bookdepository.com/author/Suzanne-Collins"/>
-    <hyperlink ref="G10" r:id="rId17" display="https://www.bookdepository.com/publishers/Scholastic"/>
-    <hyperlink ref="F11" r:id="rId18" display="https://www.bookdepository.com/author/Ransom-Riggs"/>
-    <hyperlink ref="G11" r:id="rId19" display="https://www.bookdepository.com/publishers/Quirk-Books"/>
+    <hyperlink ref="F3" r:id="rId1" display="https://www.bookdepository.com/publishers/LITTLE-BROWN"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://www.bookdepository.com/author/J-K-Rowling"/>
+    <hyperlink ref="F2" r:id="rId3" display="https://www.bookdepository.com/publishers/Little-Brown-Book-Group"/>
+    <hyperlink ref="E4" r:id="rId4" display="https://www.bookdepository.com/author/Antoine-de-Saint-Exupery"/>
+    <hyperlink ref="F4" r:id="rId5" display="https://www.bookdepository.com/publishers/Wordsworth-Editions-Ltd"/>
+    <hyperlink ref="E5" r:id="rId6" display="https://www.bookdepository.com/author/R-J-Palacio"/>
+    <hyperlink ref="F5" r:id="rId7" display="https://www.bookdepository.com/publishers/Random-House-Childrens-Publishers-UK"/>
+    <hyperlink ref="E6" r:id="rId8" display="https://www.bookdepository.com/author/Nicola-Yoon"/>
+    <hyperlink ref="F6" r:id="rId9" display="https://www.bookdepository.com/publishers/Random-House-Childrens-Publishers-UK"/>
+    <hyperlink ref="E7" r:id="rId10" display="https://www.bookdepository.com/author/J-K-Rowling"/>
+    <hyperlink ref="F7" r:id="rId11" display="https://www.bookdepository.com/publishers/Bloomsbury-Publishing-PLC"/>
+    <hyperlink ref="E8" r:id="rId12" display="https://www.bookdepository.com/author/Suzanne-Collins"/>
+    <hyperlink ref="F8" r:id="rId13" display="https://www.bookdepository.com/publishers/Scholastic-US"/>
+    <hyperlink ref="E9" r:id="rId14" display="https://www.bookdepository.com/author/David-Walliams"/>
+    <hyperlink ref="F9" r:id="rId15" display="https://www.bookdepository.com/publishers/HarperCollins-Publishers"/>
+    <hyperlink ref="E10" r:id="rId16" display="https://www.bookdepository.com/author/Suzanne-Collins"/>
+    <hyperlink ref="F10" r:id="rId17" display="https://www.bookdepository.com/publishers/Scholastic"/>
+    <hyperlink ref="E11" r:id="rId18" display="https://www.bookdepository.com/author/Ransom-Riggs"/>
+    <hyperlink ref="F11" r:id="rId19" display="https://www.bookdepository.com/publishers/Quirk-Books"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId20"/>
